--- a/medicine/Mort/Cimetière_de_l'Uranie/Cimetière_de_l'Uranie.xlsx
+++ b/medicine/Mort/Cimetière_de_l'Uranie/Cimetière_de_l'Uranie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Uranie</t>
+          <t>Cimetière_de_l'Uranie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l'Uranie est un cimetière situé à Papeete, sur l'île de Tahiti (Polynésie française). Plusieurs personnalités tahitiennes y sont enterrées. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Uranie</t>
+          <t>Cimetière_de_l'Uranie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Travaux d'aménagement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suite à l'état de saturation constaté, la mairie de Papeete engage des travaux début 2010 menant à l'aménagement de 852 tombes supplémentaires, puis fin 2012 en vue d'ajouter 912 tombes. Au total, les différents travaux engagés visent à construire 1 800 concessions supplémentaires pour un coût de 500 millions de francs Pacifique (environ 4 millions d'euros)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suite à l'état de saturation constaté, la mairie de Papeete engage des travaux début 2010 menant à l'aménagement de 852 tombes supplémentaires, puis fin 2012 en vue d'ajouter 912 tombes. Au total, les différents travaux engagés visent à construire 1 800 concessions supplémentaires pour un coût de 500 millions de francs Pacifique (environ 4 millions d'euros).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Uranie</t>
+          <t>Cimetière_de_l'Uranie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Personnalités enterrés au cimetière de l'Uranie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
-Différents maires de Papeete[2] :
+Différents maires de Papeete :
 Léonce Brault (1897-1977).
 Alfred Poroi (1906-1994), homme politique polynésien.
 Jean Juventin (1928-2019), homme politique polynésien.
-Kỳ Đồng (vi) (1875-1929), personnalité de la lutte indochinoise contre la puissance coloniale française et héros national vietnamien[3].
+Kỳ Đồng (vi) (1875-1929), personnalité de la lutte indochinoise contre la puissance coloniale française et héros national vietnamien.
 Walter Grand (1917-1983), sous-officier du Bataillon du Pacifique et homme politique polynésien.
 Coco Hotahota (vers 1941-2020), chorégraphe et danseur polynésien.
 Marie Mariterangi (1926-1971), auteure-compositrice-interprète, guitariste et joueuse d'ukulélé polynésienne.
